--- a/content/plataformes/dadesref/entitats/Tipus_identificador_persona_fisica.xlsx
+++ b/content/plataformes/dadesref/entitats/Tipus_identificador_persona_fisica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\temp\modelatge\Tipus_identificador_persona_fisica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\36.Tipus_identificador_persona_fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD62AA6-A2ED-4AC2-92BC-CAE615ACA269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF4E78-ED8E-41E9-8D32-FAD073990760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipus_idint_persona_fisica" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Passaport</t>
   </si>
   <si>
-    <t xml:space="preserve">Targeta d'identificació Sanitaria </t>
-  </si>
-  <si>
     <t>Número d'identificació fiscal</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>NIF</t>
   </si>
   <si>
-    <t>TIS</t>
-  </si>
-  <si>
     <t>NIF K</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>Tipus_identificador_persona_fisica</t>
+  </si>
+  <si>
+    <t>TSI</t>
+  </si>
+  <si>
+    <t>Targeta sanitària individual</t>
   </si>
 </sst>
 </file>
@@ -650,26 +650,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -691,233 +691,233 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +934,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <xsd:import namespace="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3ef69ce2871fbcc5f09479e4bf780f40">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1da067e5016208cce5150261eadc34a0" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -946,6 +965,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
@@ -955,7 +979,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3aff557-982a-455c-8bbc-92c71da94542" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -968,11 +992,40 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857edd72-1fa1-43ec-b599-5660574b73e4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -991,7 +1044,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1098,41 +1151,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A659798-251E-448E-BCDF-37CD57617879}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <ds:schemaRef ds:uri="857edd72-1fa1-43ec-b599-5660574b73e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A66090-DB8F-4A0D-8DC0-6C08EFC23CBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1144,14 +1163,34 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A34C94-5B16-4175-B701-72A214D85858}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A34C94-5B16-4175-B701-72A214D85858}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F49C1CD-AB4B-40C8-B7C6-CA5A31CA932E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <ds:schemaRef ds:uri="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>